--- a/JUEGOS PLACAS/P14NDC103 PLACAS 4.5 ACERO/P14NDJ33 PLACASDCP ANCHAS # 1 ACERO.xlsx
+++ b/JUEGOS PLACAS/P14NDC103 PLACAS 4.5 ACERO/P14NDJ33 PLACASDCP ANCHAS # 1 ACERO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\JUEGOS PLACAS\P14NDC103 PLACAS 4.5 ACERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{71028AB1-E052-4A29-8644-52CB9E4DAA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B2742-A176-4CF1-94D4-E40BA10FCA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4223D7B-5259-4620-9DB3-EA8B9571D2F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4223D7B-5259-4620-9DB3-EA8B9571D2F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>REGISTRO DE NOTA DE ENTREGA</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>SFC-151.117</t>
+  </si>
+  <si>
+    <t>l</t>
   </si>
 </sst>
 </file>
@@ -954,9 +957,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -994,7 +997,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1100,7 +1103,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1242,7 +1245,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,30 +1253,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0A3F6E-2F60-49CF-AC85-9A6E550098EF}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="103" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.26953125" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="11.453125" style="4"/>
+    <col min="4" max="4" width="29.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="49" t="s">
@@ -1284,7 +1287,7 @@
       </c>
       <c r="E2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" s="50"/>
@@ -1293,7 +1296,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="53" t="s">
@@ -1304,7 +1307,7 @@
       </c>
       <c r="E4" s="56"/>
     </row>
-    <row r="5" spans="1:8" ht="18.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="54"/>
@@ -1313,14 +1316,14 @@
       </c>
       <c r="E5" s="58"/>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
@@ -1335,14 +1338,14 @@
         <v>20230300236</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1361,7 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1368,7 +1371,7 @@
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>11</v>
       </c>
@@ -1386,14 +1389,14 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1411,7 +1414,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1421,7 +1424,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1449,7 +1452,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>21</v>
       </c>
@@ -1463,7 +1466,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1473,7 +1476,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>23</v>
       </c>
@@ -1487,7 +1490,7 @@
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
     </row>
-    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1497,7 +1500,7 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>25</v>
       </c>
@@ -1509,7 +1512,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
     </row>
-    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -1519,7 +1522,7 @@
       <c r="G22" s="26"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:12" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="37" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>26</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
     </row>
-    <row r="24" spans="1:12" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>31</v>
       </c>
@@ -1555,7 +1558,7 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
     </row>
-    <row r="25" spans="1:12" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>54</v>
       </c>
@@ -1572,7 +1575,7 @@
       <c r="K25" s="38"/>
       <c r="L25" s="38"/>
     </row>
-    <row r="26" spans="1:12" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" s="37" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>33</v>
       </c>
@@ -1589,7 +1592,7 @@
       <c r="K26" s="38"/>
       <c r="L26" s="38"/>
     </row>
-    <row r="27" spans="1:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>36</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
     </row>
-    <row r="28" spans="1:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>38</v>
       </c>
@@ -1623,7 +1626,7 @@
       <c r="K28" s="38"/>
       <c r="L28" s="38"/>
     </row>
-    <row r="29" spans="1:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" s="37" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>59</v>
       </c>
@@ -1640,7 +1643,7 @@
       <c r="K29" s="38"/>
       <c r="L29" s="38"/>
     </row>
-    <row r="30" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>41</v>
       </c>
@@ -1657,7 +1660,7 @@
       <c r="K30" s="38"/>
       <c r="L30" s="38"/>
     </row>
-    <row r="31" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>55</v>
       </c>
@@ -1674,7 +1677,7 @@
       <c r="K31" s="38"/>
       <c r="L31" s="38"/>
     </row>
-    <row r="32" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>58</v>
       </c>
@@ -1691,7 +1694,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
     </row>
-    <row r="33" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" s="37" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="45"/>
@@ -1703,7 +1706,7 @@
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
     </row>
-    <row r="34" spans="1:12" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>44</v>
       </c>
@@ -1720,7 +1723,7 @@
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
     </row>
-    <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>47</v>
       </c>
@@ -1735,7 +1738,7 @@
       </c>
       <c r="E35" s="43"/>
     </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>49</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="E36" s="43"/>
     </row>
-    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>51</v>
       </c>
@@ -1765,7 +1768,7 @@
       </c>
       <c r="E37" s="43"/>
     </row>
-    <row r="38" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>64</v>
       </c>
@@ -1780,7 +1783,7 @@
       </c>
       <c r="E38" s="43"/>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>65</v>
       </c>
@@ -1795,7 +1798,7 @@
       </c>
       <c r="E39" s="43"/>
     </row>
-    <row r="40" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39"/>
       <c r="B40" s="39"/>
       <c r="C40" s="40"/>
@@ -1804,6 +1807,11 @@
         <v>4</v>
       </c>
       <c r="E40" s="43"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
